--- a/data/epp-09-postalinfo-data.xlsx
+++ b/data/epp-09-postalinfo-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA2515C-50B3-2348-8948-7521F48CFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31F2AD-6670-AC44-B680-083DD578CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -138,111 +138,75 @@
     <t>{RANDCHARS(256)}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Contact Org (if supported)</t>
+  </si>
+  <si>
+    <t>Address line 1 (if supported)</t>
+  </si>
+  <si>
+    <t>Address line 2 (if supported)</t>
+  </si>
+  <si>
+    <t>Address line 3 (if supported)</t>
+  </si>
+  <si>
+    <t>State or province (if supported)</t>
+  </si>
+  <si>
+    <t>Postal code (if supported)</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_POSTALINFO_TYPE</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_EMPTY_NAME</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_ORG</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_EMPTY_CITY</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_EMPTY_CC</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_STREET</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_CITY</t>
+  </si>
+  <si>
+    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_CC</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>chg</t>
+  </si>
+  <si>
+    <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
+  </si>
+  <si>
+    <t>Postal Address Data Provider for epp-09</t>
+  </si>
+  <si>
+    <t>Notes for authors:
 * The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
 * Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
 * Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
+* All cells MUST have the "Text" type.
 * Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
-    <t>Contact Org (if supported)</t>
-  </si>
-  <si>
-    <t>Address line 1 (if supported)</t>
-  </si>
-  <si>
-    <t>Address line 2 (if supported)</t>
-  </si>
-  <si>
-    <t>Address line 3 (if supported)</t>
-  </si>
-  <si>
-    <t>State or province (if supported)</t>
-  </si>
-  <si>
-    <t>Postal code (if supported)</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_POSTALINFO_TYPE</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_EMPTY_NAME</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_ORG</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_EMPTY_CITY</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_EMPTY_CC</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_STREET</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_CITY</t>
-  </si>
-  <si>
-    <t>EPP_CONTACT_UPDATE_SERVER_ACCEPTS_INVALID_CC</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>chg</t>
-  </si>
-  <si>
-    <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
-  </si>
-  <si>
-    <t>Postal Address Data Provider for epp-09</t>
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,13 +231,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -951,7 +908,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +930,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1023,9 +980,9 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:15" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1059,7 +1016,7 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1107,25 +1064,25 @@
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -1180,7 +1137,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1216,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -1227,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -1238,7 +1195,7 @@
         <v>8</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -1252,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
@@ -1266,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
@@ -1280,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
@@ -1294,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.2">
@@ -1308,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.2">
@@ -1322,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.2">
@@ -1336,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.2">
@@ -1350,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.2">
@@ -1361,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.2">
@@ -1372,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-09-postalinfo-data.xlsx
+++ b/data/epp-09-postalinfo-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31F2AD-6670-AC44-B680-083DD578CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B6AB52-8319-874F-B597-0CDE95895F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>errorCode</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>fail</t>
@@ -908,7 +905,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,7 +927,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -948,7 +945,7 @@
     </row>
     <row r="3" spans="2:15" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -982,7 +979,7 @@
     </row>
     <row r="5" spans="2:15" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1016,10 +1013,10 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -1028,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>2</v>
@@ -1049,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>6</v>
@@ -1058,278 +1055,278 @@
     <row r="8" spans="2:15" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="N8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="N13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.2">
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.2">
       <c r="L21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.2">
       <c r="L22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
